--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,40 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
@@ -85,73 +82,73 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
 </sst>
 </file>
@@ -509,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -678,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7337662337662337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4166666666666667</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,31 +793,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>416</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0.875</v>
+      </c>
+      <c r="L7">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>98</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7">
-        <v>0.925</v>
-      </c>
-      <c r="L7">
-        <v>37</v>
-      </c>
-      <c r="M7">
-        <v>37</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,213 +825,141 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3571428571428572</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L9">
+        <v>69</v>
+      </c>
+      <c r="M9">
+        <v>69</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L11">
+        <v>48</v>
+      </c>
+      <c r="M11">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>10</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3175965665236051</v>
-      </c>
-      <c r="C9">
-        <v>74</v>
-      </c>
-      <c r="D9">
-        <v>74</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>159</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.15</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <v>46</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1046,21 +971,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1072,21 +997,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1098,21 +1023,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.717948717948718</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1124,47 +1049,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L16">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>75</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>31</v>
-      </c>
-      <c r="K16">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L16">
-        <v>52</v>
-      </c>
-      <c r="M16">
-        <v>52</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7068965517241379</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1176,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6538461538461539</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1202,21 +1127,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6470588235294118</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1228,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1254,21 +1179,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6363636363636364</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1280,21 +1205,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1306,21 +1231,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5666666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1332,21 +1257,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5277777777777778</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L24">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="M24">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1358,21 +1283,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5142857142857142</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1384,21 +1309,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5023474178403756</v>
+        <v>0.4294117647058823</v>
       </c>
       <c r="L26">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="M26">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1410,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>106</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4456521739130435</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1436,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4341085271317829</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1462,21 +1387,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.3571428571428572</v>
+        <v>0.328125</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1488,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.2631578947368421</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1514,7 +1439,59 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31">
+        <v>0.2923076923076923</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,6 +61,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -82,64 +82,61 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
@@ -148,7 +145,7 @@
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +596,13 @@
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +646,13 @@
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6404109589041096</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1937984496124031</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1534391534391534</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
@@ -875,13 +872,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -893,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -901,13 +898,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -927,13 +924,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -945,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -953,13 +950,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8203125</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -971,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -979,13 +976,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -997,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1005,13 +1002,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7323943661971831</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1023,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1031,13 +1028,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7254901960784313</v>
+        <v>0.70625</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1049,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1057,13 +1054,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7075471698113207</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1075,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1083,13 +1080,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.6830985915492958</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1101,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1109,13 +1106,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1127,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1135,13 +1132,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.62</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1153,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1161,13 +1158,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.648936170212766</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1179,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1187,13 +1184,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6349206349206349</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1205,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1213,13 +1210,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1231,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1239,13 +1236,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5208333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1257,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1265,13 +1262,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5143603133159269</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L24">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M24">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1283,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1291,13 +1288,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4719101123595505</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1309,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>47</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1317,13 +1314,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4294117647058823</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L26">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1335,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>194</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1343,13 +1340,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4101694915254237</v>
+        <v>0.4</v>
       </c>
       <c r="L27">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M27">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1361,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1369,7 +1366,7 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.3717948717948718</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L28">
         <v>29</v>
@@ -1387,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1395,13 +1392,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.328125</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1413,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1421,13 +1418,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.301255230125523</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L30">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1439,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1447,13 +1444,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.2923076923076923</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1465,33 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32">
-        <v>0.2602739726027397</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>19</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>54</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -64,36 +61,48 @@
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
@@ -103,27 +112,24 @@
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -133,19 +139,22 @@
     <t>care</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
 </sst>
 </file>
@@ -503,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -572,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6095890410958904</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5277777777777778</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>423</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -772,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1724806201550388</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,69 +799,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.875</v>
+      </c>
+      <c r="L7">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>98</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L7">
-        <v>96</v>
-      </c>
-      <c r="M7">
-        <v>96</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.164021164021164</v>
-      </c>
-      <c r="C8">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>158</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,21 +849,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,21 +875,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -968,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7169811320754716</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.70625</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6830985915492958</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,47 +1083,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+      <c r="M18">
+        <v>76</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>30</v>
-      </c>
-      <c r="K18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L18">
-        <v>42</v>
-      </c>
-      <c r="M18">
-        <v>42</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.62</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5957446808510638</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5957446808510638</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5378590078328982</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4382352941176471</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>191</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4382022471910113</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4</v>
+        <v>0.5065274151436031</v>
       </c>
       <c r="L27">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="M27">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3972602739726027</v>
+        <v>0.45</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3598326359832636</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L29">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>153</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.2923076923076923</v>
+        <v>0.4</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1436,33 +1421,137 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.3966101694915254</v>
+      </c>
+      <c r="L31">
+        <v>117</v>
+      </c>
+      <c r="M31">
+        <v>117</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K31">
-        <v>0.02237136465324385</v>
-      </c>
-      <c r="L31">
+      <c r="K32">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.3125</v>
+      </c>
+      <c r="L34">
         <v>20</v>
       </c>
-      <c r="M31">
+      <c r="M34">
         <v>20</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>874</v>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.3096234309623431</v>
+      </c>
+      <c r="L35">
+        <v>74</v>
+      </c>
+      <c r="M35">
+        <v>74</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
